--- a/data/outputs/management_elsevier/93.xlsx
+++ b/data/outputs/management_elsevier/93.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS24"/>
+  <dimension ref="A1:BU24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +949,12 @@
           <t>2-s2.0-84961601672</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1483</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84947342971</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1427</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1374,6 +1396,12 @@
         <is>
           <t>2-s2.0-84949870323</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>1314</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1582,6 +1610,12 @@
           <t>2-s2.0-84948844012</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1220</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1798,6 +1832,12 @@
         <is>
           <t>2-s2.0-84930360271</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>3232</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1978,6 +2018,12 @@
           <t>2-s2.0-84941030938</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>229</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2187,6 +2233,12 @@
           <t>2-s2.0-84941179904</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2946</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2399,6 +2451,12 @@
         <is>
           <t>2-s2.0-84941171017</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>1865</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2603,6 +2661,12 @@
           <t>2-s2.0-84941190752</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>2717</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2810,6 +2874,12 @@
           <t>2-s2.0-84941171444</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1523</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3017,6 +3087,12 @@
           <t>2-s2.0-84941187938</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2834</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3236,6 +3312,12 @@
           <t>2-s2.0-84932197789</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>3711</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3454,6 +3536,12 @@
         <is>
           <t>2-s2.0-84932191966</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>3308</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -3662,6 +3750,12 @@
           <t>2-s2.0-84932193303</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>794</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3881,6 +3975,12 @@
           <t>2-s2.0-84932193567</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2698</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4095,6 +4195,12 @@
         <is>
           <t>2-s2.0-84932199437</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>2706</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -4302,6 +4408,12 @@
         <is>
           <t>2-s2.0-84932198618</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>4885</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -4482,6 +4594,12 @@
           <t>2-s2.0-84924297723</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>394</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4695,6 +4813,12 @@
           <t>2-s2.0-84924442658</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3963</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4902,6 +5026,12 @@
           <t>2-s2.0-84924445707</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>4773</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5119,6 +5249,12 @@
           <t>2-s2.0-84924488566</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>4295</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5330,6 +5466,12 @@
           <t>2-s2.0-84924334253</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>3716</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5541,6 +5683,12 @@
           <t>2-s2.0-84924506513</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>3053</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
